--- a/data/trans_dic/P16B15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,69%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>22,77; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,67%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>72,22; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>75,44; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>79,97; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>90,74; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>91,13; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>95,36; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>97,92; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,23%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>93,31; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>91,56; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>97,98; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>95,74; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>96,29; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>98,86; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>94,69; 99,43</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,74%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>98,02; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>98,86; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>98,94; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>95,61; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>97,87; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>97,38; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>97,54; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>98,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>95,99; 99,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>98,82; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>96,58; 99,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>97,33; 99,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>98,37; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>97,58; 99,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>99,08; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>98,01; 99,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1197,32 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,49%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,02; 100</t>
+          <t>96,58; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100</t>
+          <t>98,04; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>98,94; 100</t>
+          <t>97,98; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,61; 100,0</t>
+          <t>92,56; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100,0</t>
+          <t>98,27; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,38; 100,0</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,54; 100,0</t>
+          <t>95,45; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>99,08; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>98,69; 100,0</t>
+          <t>97,44; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>95,45; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97,3; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>97,8; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>97,26; 100</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>96,04; 100,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>97,87; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>98,27; 100</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>97,44; 100,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>98,91; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>98,45%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99,71%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98,6%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>99,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99,75%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>99,47%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>98,77%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99,73%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>95,99; 99,56</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>98,82; 100,0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>96,58; 99,67</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>97,33; 99,68</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>98,83; 100,0</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>98,37; 100,0</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>97,58; 99,5</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>99,08; 100,0</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>98,01; 99,57</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,77; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,22; 100,0</t>
+          <t>60,79; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75,44; 100,0</t>
+          <t>73,87; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,97; 100,0</t>
+          <t>77,93; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,74; 100,0</t>
+          <t>89,21; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,13; 100,0</t>
+          <t>89,15; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,36; 100,0</t>
+          <t>95,25; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>93,31; 100,0</t>
+          <t>92,94; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91,56; 100,0</t>
+          <t>91,62; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>95,74; 100,0</t>
+          <t>94,24; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,29; 100,0</t>
+          <t>95,59; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>94,69; 99,43</t>
+          <t>95,04; 99,43</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,56; 100,0</t>
+          <t>92,58; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,35; 100,0</t>
+          <t>96,0; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>95,45; 100,0</t>
+          <t>95,36; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97,44; 100,0</t>
+          <t>96,76; 100,0</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1366,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,04; 100,0</t>
+          <t>96,06; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1380,7 +1381,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>97,44; 100,0</t>
+          <t>97,46; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,99; 99,56</t>
+          <t>95,24; 99,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>98,82; 100,0</t>
+          <t>98,55; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>96,58; 99,67</t>
+          <t>95,78; 99,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,68</t>
+          <t>97,11; 99,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>98,83; 100,0</t>
+          <t>98,76; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>98,37; 100,0</t>
+          <t>98,1; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,5</t>
+          <t>97,38; 99,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>99,08; 100,0</t>
+          <t>99,07; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,57</t>
+          <t>97,95; 99,68</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para bajar el colesterol fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8590</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5836</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2041</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14426</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2854</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6593; 8590</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2966</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4052; 5836</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>207; 907</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3843</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12333; 14426</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3873</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15121</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23613</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18390</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13534</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19103</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28655</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42715</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23944</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13332; 15121</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21660; 23613</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11999; 19738</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11708; 13534</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17289; 19103</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4088; 5555</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26772; 28655</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40772; 42715</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18684; 25293</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27854</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>48329</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48578</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24832</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>56075</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>49068</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52686</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>104404</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>97646</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22634; 29044</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44010; 49336</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>46515; 48578</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23013; 24832</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53841; 56075</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47113; 49068</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48028; 53876</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100407; 105411</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>95612; 97646</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52274</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>83133</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>71364</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>60916</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>102117</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>93245</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>113189</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>185249</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>164609</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>49359; 53108</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81010; 83133</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>67206; 73352</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>58973; 60916</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100057; 102117</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>88798; 94222</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>108999; 114023</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>183146; 185249</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>159255; 166619</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>51134</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>106453</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>95006</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>83173</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>114404</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>104679</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>134307</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>220856</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>199685</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>49387; 51134</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>104371; 106453</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>93089; 95006</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>78665; 84966</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>112428; 114404</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>101471; 105695</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>129788; 136100</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>218819; 220856</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>194203; 200701</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40267</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>78997</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>71549</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>80648</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>135911</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>118823</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>120914</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>214909</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>190372</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38435; 40267</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>76866; 78997</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>69973; 71549</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>78442; 80648</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>131590; 136988</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>116293; 118823</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>118826; 120914</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>210503; 215986</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188297; 190372</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>187689</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>349115</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>306836</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>264102</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>433446</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>372275</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>451793</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>782561</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>679110</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>181581; 189808</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>345036; 350122</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>298069; 309831</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>259058; 265905</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>429140; 434523</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>367144; 374268</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>445413; 454825</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>777349; 784644</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>671390; 683254</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>